--- a/results.xlsx
+++ b/results.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonorbarreiros/Desktop/P1/LN/Projeto/P2/MP2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julianayang/Desktop/LN2223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB190B1-4ACA-3F4B-9F1F-71080F43D6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32D8463-4F8C-184A-AE46-48D4E9720F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="500" windowWidth="20020" windowHeight="15060" xr2:uid="{D431602A-7DD3-0049-BB0B-09E4E3AEA6B3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{D431602A-7DD3-0049-BB0B-09E4E3AEA6B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
   <si>
     <t>Modelo</t>
   </si>
@@ -246,6 +247,21 @@
       <t>0,0022</t>
     </r>
   </si>
+  <si>
+    <t>Logistics</t>
+  </si>
+  <si>
+    <t>negative words</t>
+  </si>
+  <si>
+    <t>Nº adjectives</t>
+  </si>
+  <si>
+    <t>P/N sentence?</t>
+  </si>
+  <si>
+    <t>Nº P/N</t>
+  </si>
 </sst>
 </file>
 
@@ -274,7 +290,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,8 +321,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -314,11 +342,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -338,6 +381,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,7 +404,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -654,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95C0369-5D1E-0442-A497-CC3DB47DD641}">
   <dimension ref="B2:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView topLeftCell="A15" zoomScale="217" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1228,4 +1276,440 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE48D59-1A0E-2346-B503-0EB17E985974}">
+  <dimension ref="A4:L28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="236" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="1.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:12" s="11" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.48449999999999999</v>
+      </c>
+      <c r="B5">
+        <v>0.46350000000000002</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="B6">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="B7">
+        <v>0.46650000000000003</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="B8">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.48649999999999999</v>
+      </c>
+      <c r="B9">
+        <v>0.46850000000000003</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="B10">
+        <v>0.46850000000000003</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="B11">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="B12">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="B13">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0.48949999999999999</v>
+      </c>
+      <c r="B14">
+        <v>0.48449999999999999</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0.4945</v>
+      </c>
+      <c r="B15">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0.49349999999999999</v>
+      </c>
+      <c r="B16">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0.495</v>
+      </c>
+      <c r="B17">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C22" s="13"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="B23">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julianayang/Desktop/LN2223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32D8463-4F8C-184A-AE46-48D4E9720F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1733E97-C402-F248-8398-76FC68539C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{D431602A-7DD3-0049-BB0B-09E4E3AEA6B3}"/>
   </bookViews>
@@ -1282,8 +1282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE48D59-1A0E-2346-B503-0EB17E985974}">
   <dimension ref="A4:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="236" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="236" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1572,6 +1572,12 @@
       <c r="L17" s="12"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0.495</v>
+      </c>
+      <c r="B18">
+        <v>0.48799999999999999</v>
+      </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -1584,6 +1590,12 @@
       <c r="L18" s="12"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0.4955</v>
+      </c>
+      <c r="B19">
+        <v>0.48699999999999999</v>
+      </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -1596,6 +1608,12 @@
       <c r="L19" s="12"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0.4945</v>
+      </c>
+      <c r="B20">
+        <v>0.49</v>
+      </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="13"/>
@@ -1608,6 +1626,12 @@
       <c r="L20" s="12"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0.49149999999999999</v>
+      </c>
+      <c r="B21">
+        <v>0.48449999999999999</v>
+      </c>
       <c r="C21" s="12"/>
       <c r="D21" s="13"/>
       <c r="E21" s="12"/>
@@ -1620,6 +1644,12 @@
       <c r="L21" s="12"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0.4945</v>
+      </c>
+      <c r="B22">
+        <v>0.48849999999999999</v>
+      </c>
       <c r="C22" s="13"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julianayang/Desktop/LN2223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1733E97-C402-F248-8398-76FC68539C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE4630A-BF67-4144-AAAC-D9F7E8C259DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{D431602A-7DD3-0049-BB0B-09E4E3AEA6B3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{D431602A-7DD3-0049-BB0B-09E4E3AEA6B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -290,7 +290,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,8 +333,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -357,11 +363,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -386,6 +462,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1280,10 +1369,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE48D59-1A0E-2346-B503-0EB17E985974}">
-  <dimension ref="A4:L28"/>
+  <dimension ref="A4:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="236" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="236" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1338,10 +1427,10 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="19">
         <v>0.48449999999999999</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="19">
         <v>0.46350000000000002</v>
       </c>
       <c r="C5" s="12"/>
@@ -1356,10 +1445,10 @@
       <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="20">
         <v>0.48699999999999999</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="20">
         <v>0.46800000000000003</v>
       </c>
       <c r="C6" s="12"/>
@@ -1374,10 +1463,10 @@
       <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="20">
         <v>0.48749999999999999</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="20">
         <v>0.46650000000000003</v>
       </c>
       <c r="C7" s="12"/>
@@ -1392,10 +1481,10 @@
       <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="20">
         <v>0.48599999999999999</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="20">
         <v>0.46800000000000003</v>
       </c>
       <c r="C8" s="12"/>
@@ -1410,10 +1499,10 @@
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="20">
         <v>0.48649999999999999</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="20">
         <v>0.46850000000000003</v>
       </c>
       <c r="C9" s="12"/>
@@ -1428,10 +1517,10 @@
       <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="20">
         <v>0.48599999999999999</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="20">
         <v>0.46850000000000003</v>
       </c>
       <c r="C10" s="12"/>
@@ -1446,10 +1535,10 @@
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="20">
         <v>0.48599999999999999</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="20">
         <v>0.46899999999999997</v>
       </c>
       <c r="C11" s="12"/>
@@ -1464,28 +1553,28 @@
       <c r="L11" s="13"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="20">
         <v>0.48699999999999999</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="20">
         <v>0.46899999999999997</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="19">
         <v>0.48899999999999999</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="19">
         <v>0.48299999999999998</v>
       </c>
       <c r="C13" s="12"/>
@@ -1500,10 +1589,10 @@
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="20">
         <v>0.48949999999999999</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="20">
         <v>0.48449999999999999</v>
       </c>
       <c r="C14" s="12"/>
@@ -1518,10 +1607,10 @@
       <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="20">
         <v>0.4945</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="20">
         <v>0.48699999999999999</v>
       </c>
       <c r="C15" s="12"/>
@@ -1536,10 +1625,10 @@
       <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="20">
         <v>0.49349999999999999</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="20">
         <v>0.48799999999999999</v>
       </c>
       <c r="C16" s="12"/>
@@ -1554,10 +1643,10 @@
       <c r="L16" s="12"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="20">
         <v>0.495</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="20">
         <v>0.48749999999999999</v>
       </c>
       <c r="C17" s="12"/>
@@ -1572,10 +1661,10 @@
       <c r="L17" s="12"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="20">
         <v>0.495</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="20">
         <v>0.48799999999999999</v>
       </c>
       <c r="C18" s="12"/>
@@ -1590,10 +1679,10 @@
       <c r="L18" s="12"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="25">
         <v>0.4955</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="20">
         <v>0.48699999999999999</v>
       </c>
       <c r="C19" s="12"/>
@@ -1608,10 +1697,10 @@
       <c r="L19" s="12"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="20">
         <v>0.4945</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="20">
         <v>0.49</v>
       </c>
       <c r="C20" s="12"/>
@@ -1626,10 +1715,10 @@
       <c r="L20" s="12"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="20">
         <v>0.49149999999999999</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="20">
         <v>0.48449999999999999</v>
       </c>
       <c r="C21" s="12"/>
@@ -1643,23 +1732,23 @@
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="22" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21">
         <v>0.4945</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="21">
         <v>0.48849999999999999</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -1668,22 +1757,26 @@
       <c r="B23">
         <v>0.48799999999999999</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C24" s="12"/>
+      <c r="A24" s="19">
+        <v>0.4945</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="F24" s="13"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
@@ -1692,10 +1785,14 @@
       <c r="L24" s="12"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="20">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="B25" s="20"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
@@ -1704,10 +1801,14 @@
       <c r="L25" s="12"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="20">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="B26" s="20"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
@@ -1716,11 +1817,15 @@
       <c r="L26" s="12"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="25">
+        <v>0.496</v>
+      </c>
+      <c r="B27" s="20"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -1728,16 +1833,144 @@
       <c r="L27" s="12"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
+      <c r="A28" s="25">
+        <v>0.496</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="20">
+        <v>0.495</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="20">
+        <v>0.495</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="20">
+        <v>0.49049999999999999</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="12"/>
+    </row>
+    <row r="32" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="21">
+        <v>0.48949999999999999</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="23"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="16">
+        <v>0.4965</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="26">
+        <v>0.495</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="26">
+        <v>0.49249999999999999</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="26">
+        <v>0.49149999999999999</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julianayang/Desktop/LN2223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE4630A-BF67-4144-AAAC-D9F7E8C259DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAEBA4C-2719-6248-81F6-99585F109946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{D431602A-7DD3-0049-BB0B-09E4E3AEA6B3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{D431602A-7DD3-0049-BB0B-09E4E3AEA6B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="LR" sheetId="2" r:id="rId2"/>
+    <sheet name="NaiveBayes" sheetId="3" r:id="rId3"/>
+    <sheet name="SVM" sheetId="4" r:id="rId4"/>
+    <sheet name="Seed-simplificado" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="79">
   <si>
     <t>Modelo</t>
   </si>
@@ -262,12 +265,242 @@
   <si>
     <t>Nº P/N</t>
   </si>
+  <si>
+    <t>svm</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>[[225 100  44  14  17]
+ [ 91 169  83  38  19]
+ [ 54  94 168  77  36]
+ [ 29  24  49 181  96]
+ [ 30  18  26  78 240]]</t>
+  </si>
+  <si>
+    <t>[[244  84  23  22  27]
+ [122 136  69  39  34]
+ [ 65  78 149  82  55]
+ [ 21  27  33 175 123]
+ [ 26  13  13  64 276]]</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>727</t>
+  </si>
+  <si>
+    <t>836</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>[[253  73  16  22  25]
+ [152 142  64  39  30]
+ [ 77  63 137  70  47]
+ [ 27  23  35 181 125]
+ [ 32  14  12  67 274]]</t>
+  </si>
+  <si>
+    <t>[[251  74  17  22  25]
+ [151 145  64  38  29]
+ [ 76  62 139  70  47]
+ [ 26  23  37 181 124]
+ [ 32  14  12  67 274]]</t>
+  </si>
+  <si>
+    <t>[[221  93  33  22  20]
+ [114 179  83  33  18]
+ [ 52  80 160  70  32]
+ [ 20  27  55 182 107]
+ [ 27  14  17  83 258]]</t>
+  </si>
+  <si>
+    <t>[[232  93  25  18  21]
+ [120 167  89  32  19]
+ [ 59  68 161  75  31]
+ [ 18  24  57 199  93]
+ [ 30  12  24  91 242]]</t>
+  </si>
+  <si>
+    <t>[[239  88  15  19  23]
+ [127 113  67  31  29]
+ [ 73  72 132  90  43]
+ [ 35  17  44 171 141]
+ [ 39  12  17  61 302]]</t>
+  </si>
+  <si>
+    <t>[[240  90  12  19  23]
+ [129 112  66  31  29]
+ [ 73  72 132  90  43]
+ [ 35  17  44 171 141]
+ [ 40  10  16  60 305]]</t>
+  </si>
+  <si>
+    <t>[[213 112  23  17  19]
+ [ 93 139  86  33  16]
+ [ 56  82 162  83  27]
+ [ 25  21  63 177 122]
+ [ 35  13  27  73 283]]</t>
+  </si>
+  <si>
+    <t>[[220 109  23  10  22]
+ [ 89 130  86  45  17]
+ [ 50  87 160  87  26]
+ [ 30  26  66 186 100]
+ [ 42  16  24  82 267]]</t>
+  </si>
+  <si>
+    <t>[[220 109  23  10  22]
+ [ 88 130  86  46  17]
+ [ 50  87 160  87  26]
+ [ 30  26  65 187 100]
+ [ 42  16  24  82 267]]</t>
+  </si>
+  <si>
+    <t>[[202 121  24  20  23]
+ [108 147  72  37  27]
+ [ 62  87 153  80  40]
+ [ 30  25  55 187  95]
+ [ 28  14  16  92 255]]</t>
+  </si>
+  <si>
+    <t>[[206 119  27  16  22]
+ [100 140  86  36  29]
+ [ 59  86 154  81  42]
+ [ 32  24  62 183  91]
+ [ 31  14  18  98 244]]</t>
+  </si>
+  <si>
+    <t>[[206 119  27  16  22]
+ [100 140  86  36  29]
+ [ 59  86 154  81  42]
+ [ 32  23  62 183  92]
+ [ 31  14  18  98 244]]</t>
+  </si>
+  <si>
+    <t>[[220 105  21  15  29]
+ [122 130  63  36  40]
+ [ 74  77 126  86  59]
+ [ 34  21  47 174 116]
+ [ 28  11  13  65 288]]</t>
+  </si>
+  <si>
+    <t>[[219 106  20  16  29]
+ [122 129  65  36  39]
+ [ 73  78 126  86  59]
+ [ 33  21  48 174 116]
+ [ 27  11  14  65 288]]</t>
+  </si>
+  <si>
+    <t>[[220 130  48  13  13]
+ [ 95 180  84  39  12]
+ [ 55  91 163  75  22]
+ [ 18  33  71 155 102]
+ [ 18  14  12  83 254]]</t>
+  </si>
+  <si>
+    <t>[[234 120  38  16  16]
+ [ 96 173  81  44  16]
+ [ 47  93 161  79  26]
+ [ 19  28  70 168  94]
+ [ 17  13  17  88 246]]</t>
+  </si>
+  <si>
+    <t>[[234 120  38  16  16]
+ [ 96 173  81  44  16]
+ [ 47  93 160  80  26]
+ [ 19  28  70 168  94]
+ [ 17  13  17  88 246]]</t>
+  </si>
+  <si>
+    <t>[[246 109  25  24  20]
+ [115 155  65  41  34]
+ [ 68  83 129  93  33]
+ [ 22  25  52 154 126]
+ [ 25   8   9  66 273]]</t>
+  </si>
+  <si>
+    <t>[[245 110  25  23  21]
+ [115 157  63  41  34]
+ [ 68  84 128  93  33]
+ [ 21  26  52 154 126]
+ [ 23   8  10  67 273]]</t>
+  </si>
+  <si>
+    <t>NB1</t>
+  </si>
+  <si>
+    <t>NB2</t>
+  </si>
+  <si>
+    <t>SVM1</t>
+  </si>
+  <si>
+    <t>SVM2</t>
+  </si>
+  <si>
+    <t>[[217 106  43  26  21]
+ [108 153  67  34  19]
+ [ 57  89 166  69  36]
+ [ 23  30  57 181 119]
+ [ 21   9  21  73 255]]</t>
+  </si>
+  <si>
+    <t>[[231 104  40  16  22]
+ [121 156  57  25  22]
+ [ 54  89 151  86  37]
+ [ 32  25  60 189 104]
+ [ 33  16  23  71 236]]</t>
+  </si>
+  <si>
+    <t>[[230 104  39  18  22]
+ [121 156  57  25  22]
+ [ 54  89 151  86  37]
+ [ 32  25  60 189 104]
+ [ 33  16  23  71 236]]</t>
+  </si>
+  <si>
+    <t>[[249  89  26  25  24]
+ [127 131  48  35  40]
+ [ 73  70 135  92  47]
+ [ 31  19  41 176 143]
+ [ 31  11  10  56 271]]</t>
+  </si>
+  <si>
+    <t>[[250  88  26  26  23]
+ [132 129  50  34  36]
+ [ 73  70 134  92  48]
+ [ 31  19  41 176 143]
+ [ 32  11  10  56 270]]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -289,8 +522,50 @@
       <name val="Courier New"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,12 +610,35 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor rgb="FFB4C6E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FFD9E1F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -433,11 +731,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -464,7 +855,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -473,13 +864,152 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -490,6 +1020,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AD018E79-40D4-0546-868E-BF8E50AFF050}" name="Table3" displayName="Table3" ref="O4:Q9" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="O4:Q9" xr:uid="{AD018E79-40D4-0546-868E-BF8E50AFF050}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{FE12D8A6-BF2E-DA41-954B-C25EE46F61E7}" name="seed"/>
+    <tableColumn id="3" xr3:uid="{CFB45113-9B02-5347-A961-4BDA5C0D1EC1}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{1DF3BF93-623B-AD48-AA29-81B685EF0519}" name="LR"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AE7DE084-3683-1549-862C-88FD86DEAA6D}" name="Table2" displayName="Table2" ref="P4:Q9" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="P4:Q9" xr:uid="{AE7DE084-3683-1549-862C-88FD86DEAA6D}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{4DD33A30-3CCF-0E4F-A452-8F3D91C121A2}" name="seed"/>
+    <tableColumn id="2" xr3:uid="{04240C74-822D-1546-B6CD-C15F10919F6C}" name="NB"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BBE1C2E3-E940-8348-98A4-9E8DDEE7D518}" name="Table4" displayName="Table4" ref="N25:T37" totalsRowShown="0">
+  <autoFilter ref="N25:T37" xr:uid="{BBE1C2E3-E940-8348-98A4-9E8DDEE7D518}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{27587CDA-26B5-CE43-846D-9A5F80E6CD7B}" name="seed"/>
+    <tableColumn id="2" xr3:uid="{DCC10663-8A26-6F46-B36E-07BA61D3E2E4}" name="42"/>
+    <tableColumn id="3" xr3:uid="{0A3B5944-7933-2448-8E4C-4FBC909A9690}" name="727"/>
+    <tableColumn id="4" xr3:uid="{367B3F48-D8E0-3849-A132-DAB27AF23D23}" name="836"/>
+    <tableColumn id="5" xr3:uid="{7A21FC58-80B5-E441-A6AE-7067858EAF62}" name="67"/>
+    <tableColumn id="6" xr3:uid="{0D6BF995-CBE0-B848-B8FD-19A41FA7310A}" name="47"/>
+    <tableColumn id="7" xr3:uid="{1C1B0D63-F715-7A42-8E7E-2309FA9AB0B0}" name="215"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53DA7F48-FC31-DC46-B2A1-F2475C125A03}" name="Table1" displayName="Table1" ref="P4:Q9" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+  <autoFilter ref="P4:Q9" xr:uid="{53DA7F48-FC31-DC46-B2A1-F2475C125A03}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{F7C836D0-F97F-2548-8E74-D9E3B3D1C8C9}" name="seed" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{C2ABAB1E-8CA1-404F-BFBF-27DFEA90C9DD}" name="LR" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C03ADF97-A77A-E842-8435-824E6CD45173}" name="Table5" displayName="Table5" ref="O35:U47" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="O35:U47" xr:uid="{C03ADF97-A77A-E842-8435-824E6CD45173}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{EECAF8BD-B51E-F942-8EC3-5486207D7B0A}" name="seed"/>
+    <tableColumn id="2" xr3:uid="{4F71418B-2679-9446-A535-FC8B4CEEA283}" name="42"/>
+    <tableColumn id="3" xr3:uid="{D968A87D-2F7F-764F-837D-B89CD70EDA16}" name="727"/>
+    <tableColumn id="4" xr3:uid="{6837E2BC-3E3A-4348-BD3C-5921148C2927}" name="836"/>
+    <tableColumn id="5" xr3:uid="{89602333-0D79-6D46-86ED-FF38771A0C30}" name="67"/>
+    <tableColumn id="6" xr3:uid="{A4361E7A-036C-D34B-9A8C-C9F1983F9541}" name="47"/>
+    <tableColumn id="7" xr3:uid="{B87276B7-9884-B542-B92D-824A5C6AF58E}" name="215"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9566FD87-8310-4D40-BE9D-791A1E2D66EA}" name="Table6" displayName="Table6" ref="B3:G15" totalsRowShown="0">
+  <autoFilter ref="B3:G15" xr:uid="{9566FD87-8310-4D40-BE9D-791A1E2D66EA}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{6CEE7FD4-CEF9-1F4E-8FD2-B585DBBFA950}" name="seed"/>
+    <tableColumn id="2" xr3:uid="{2ED66DC2-50E0-0449-9416-6A6D970FEBAC}" name="LR"/>
+    <tableColumn id="3" xr3:uid="{380EDE56-823A-2C46-B6D8-5FF49F600875}" name="NB1"/>
+    <tableColumn id="4" xr3:uid="{323E8E67-FC9C-184F-BEB8-2A9B4ACF7770}" name="NB2"/>
+    <tableColumn id="5" xr3:uid="{CBF76E0F-46FE-A242-980B-FFEEFAD5CC1B}" name="SVM1"/>
+    <tableColumn id="6" xr3:uid="{51312238-C0B1-B24A-BCB7-120EB9586D0A}" name="SVM2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -791,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95C0369-5D1E-0442-A497-CC3DB47DD641}">
   <dimension ref="B2:E61"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="217" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A45" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1311,6 +1922,9 @@
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="27">
+        <v>0.48399999999999999</v>
+      </c>
       <c r="C55" s="10">
         <f>0.472</f>
         <v>0.47199999999999998</v>
@@ -1369,15 +1983,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE48D59-1A0E-2346-B503-0EB17E985974}">
-  <dimension ref="A4:L36"/>
+  <dimension ref="A4:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="236" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="5" max="5" width="1.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.6640625" bestFit="1" customWidth="1"/>
@@ -1386,9 +2000,10 @@
     <col min="9" max="10" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:12" s="11" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="11" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>32</v>
       </c>
@@ -1425,8 +2040,17 @@
       <c r="L4" s="11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
         <v>0.48449999999999999</v>
       </c>
@@ -1443,8 +2067,17 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O5">
+        <v>727</v>
+      </c>
+      <c r="P5" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="20">
         <v>0.48699999999999999</v>
       </c>
@@ -1461,8 +2094,17 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O6">
+        <v>836</v>
+      </c>
+      <c r="P6" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
         <v>0.48749999999999999</v>
       </c>
@@ -1479,8 +2121,17 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O7">
+        <v>67</v>
+      </c>
+      <c r="P7" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q7">
+        <v>0.47199999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
         <v>0.48599999999999999</v>
       </c>
@@ -1497,8 +2148,17 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O8">
+        <v>47</v>
+      </c>
+      <c r="P8" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8">
+        <v>0.48599999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>0.48649999999999999</v>
       </c>
@@ -1515,8 +2175,17 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O9">
+        <v>215</v>
+      </c>
+      <c r="P9" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q9">
+        <v>0.48599999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
         <v>0.48599999999999999</v>
       </c>
@@ -1534,7 +2203,7 @@
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
         <v>0.48599999999999999</v>
       </c>
@@ -1552,43 +2221,43 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="20">
+    <row r="12" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35">
         <v>0.48699999999999999</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="35">
         <v>0.46899999999999997</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="19">
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+    </row>
+    <row r="13" spans="1:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20">
         <v>0.48899999999999999</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="20">
         <v>0.48299999999999998</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="13"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>0.48949999999999999</v>
       </c>
@@ -1606,7 +2275,7 @@
       <c r="K14" s="13"/>
       <c r="L14" s="12"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="20">
         <v>0.4945</v>
       </c>
@@ -1624,7 +2293,7 @@
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="20">
         <v>0.49349999999999999</v>
       </c>
@@ -1642,7 +2311,7 @@
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="20">
         <v>0.495</v>
       </c>
@@ -1660,7 +2329,7 @@
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="20">
         <v>0.495</v>
       </c>
@@ -1678,7 +2347,7 @@
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="25">
         <v>0.4955</v>
       </c>
@@ -1696,11 +2365,11 @@
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="20">
         <v>0.4945</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="25">
         <v>0.49</v>
       </c>
       <c r="C20" s="12"/>
@@ -1714,7 +2383,7 @@
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="20">
         <v>0.49149999999999999</v>
       </c>
@@ -1731,26 +2400,29 @@
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
-    </row>
-    <row r="22" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21">
+      <c r="M21">
+        <v>0.47299999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="35">
         <v>0.4945</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="35">
         <v>0.48849999999999999</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+    </row>
+    <row r="23" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.49399999999999999</v>
       </c>
@@ -1768,7 +2440,7 @@
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
         <v>0.4945</v>
       </c>
@@ -1784,7 +2456,7 @@
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="20">
         <v>0.49199999999999999</v>
       </c>
@@ -1800,7 +2472,7 @@
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="20">
         <v>0.49199999999999999</v>
       </c>
@@ -1816,7 +2488,7 @@
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="25">
         <v>0.496</v>
       </c>
@@ -1832,7 +2504,7 @@
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="25">
         <v>0.496</v>
       </c>
@@ -1848,7 +2520,7 @@
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="20">
         <v>0.495</v>
       </c>
@@ -1864,7 +2536,7 @@
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="20">
         <v>0.495</v>
       </c>
@@ -1880,7 +2552,7 @@
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="20">
         <v>0.49049999999999999</v>
       </c>
@@ -1896,7 +2568,7 @@
       <c r="K31" s="13"/>
       <c r="L31" s="12"/>
     </row>
-    <row r="32" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>0.48949999999999999</v>
       </c>
@@ -1913,19 +2585,35 @@
       <c r="L32" s="23"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="16">
+      <c r="A33" s="28">
         <v>0.4965</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
+      <c r="E33" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="26">
@@ -1972,7 +2660,2173 @@
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
     </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="26">
+        <v>0.496</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="26">
+        <v>0.4955</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="26">
+        <v>0.48949999999999999</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="12"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="26">
+        <v>0.48949999999999999</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="13"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0468C6D-03B3-F548-B89A-C9BC25AA5184}">
+  <dimension ref="A4:T42"/>
+  <sheetViews>
+    <sheetView topLeftCell="L26" zoomScale="156" workbookViewId="0">
+      <selection activeCell="T37" sqref="T37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="1.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="15" max="18" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.6640625" customWidth="1"/>
+    <col min="20" max="20" width="18.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:17" s="11" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="19">
+        <v>0.48449999999999999</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0.46350000000000002</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="P5">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="20">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="B6" s="20">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="P6">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="20">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="B7" s="20">
+        <v>0.46650000000000003</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7">
+        <v>0.47849999999999998</v>
+      </c>
+      <c r="P7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="20">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="B8" s="20">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="P8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="20">
+        <v>0.48649999999999999</v>
+      </c>
+      <c r="B9" s="20">
+        <v>0.46850000000000003</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="P9">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="20">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="B10" s="20">
+        <v>0.46850000000000003</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10">
+        <v>0.47849999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="20">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="B11" s="20">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11">
+        <v>0.47799999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="B12" s="35">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="34">
+        <v>0.47899999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="B13" s="20">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="18"/>
+      <c r="M13">
+        <v>0.47699999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="20">
+        <v>0.48949999999999999</v>
+      </c>
+      <c r="B14" s="20">
+        <v>0.48449999999999999</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="20">
+        <v>0.48749999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="20">
+        <v>0.4945</v>
+      </c>
+      <c r="B15" s="20">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="29">
+        <v>0.48399999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="20">
+        <v>0.49349999999999999</v>
+      </c>
+      <c r="B16" s="20">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="29">
+        <v>0.48499999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="20">
+        <v>0.495</v>
+      </c>
+      <c r="B17" s="20">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="29">
+        <v>0.48449999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="20">
+        <v>0.495</v>
+      </c>
+      <c r="B18" s="20">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="29">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="25">
+        <v>0.4955</v>
+      </c>
+      <c r="B19" s="20">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="29">
+        <v>0.48549999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="20">
+        <v>0.4945</v>
+      </c>
+      <c r="B20" s="25">
+        <v>0.49</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="29">
+        <v>0.48549999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="20">
+        <v>0.49149999999999999</v>
+      </c>
+      <c r="B21" s="20">
+        <v>0.48449999999999999</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21">
+        <v>0.47299999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="35">
+        <v>0.4945</v>
+      </c>
+      <c r="B22" s="35">
+        <v>0.48849999999999999</v>
+      </c>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22">
+        <v>0.48599999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="B23">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23">
+        <v>0.48199999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="32"/>
+      <c r="B24" s="19">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26">
+        <v>0.48549999999999999</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="N25" t="s">
+        <v>38</v>
+      </c>
+      <c r="O25" t="s">
+        <v>43</v>
+      </c>
+      <c r="P25" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>46</v>
+      </c>
+      <c r="R25" t="s">
+        <v>47</v>
+      </c>
+      <c r="S25" t="s">
+        <v>48</v>
+      </c>
+      <c r="T25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="119" x14ac:dyDescent="0.2">
+      <c r="A26" s="26"/>
+      <c r="B26" s="25">
+        <v>0.49149999999999999</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q26" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="R26" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="S26" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="T26" s="44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="N27" t="s">
+        <v>50</v>
+      </c>
+      <c r="P27">
+        <v>0.50049999999999994</v>
+      </c>
+      <c r="Q27">
+        <v>0.48149999999999998</v>
+      </c>
+      <c r="R27">
+        <v>0.46350000000000002</v>
+      </c>
+      <c r="S27">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="T27">
+        <v>0.48149999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26">
+        <v>0.49</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26">
+        <v>0.48449999999999999</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="12"/>
+    </row>
+    <row r="32" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="38"/>
+      <c r="B32" s="35">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="36"/>
+    </row>
+    <row r="33" spans="1:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="31"/>
+      <c r="B33" s="26">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34" s="26"/>
+      <c r="B34" s="26">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="N34" s="11"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" s="26"/>
+      <c r="B35" s="26">
+        <v>0.48949999999999999</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" s="26"/>
+      <c r="B36" s="26">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="N36" t="s">
+        <v>50</v>
+      </c>
+      <c r="P36">
+        <v>0.50049999999999994</v>
+      </c>
+      <c r="Q36">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="R36">
+        <v>0.46350000000000002</v>
+      </c>
+      <c r="S36">
+        <v>0.49049999999999999</v>
+      </c>
+      <c r="T36">
+        <v>0.48099999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="119" x14ac:dyDescent="0.2">
+      <c r="A37" s="26"/>
+      <c r="B37" s="25">
+        <v>0.49149999999999999</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q37" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="R37" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="S37" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="T37" s="44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B38" s="26">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B39" s="26">
+        <v>0.48349999999999999</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="12"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="13"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6617C56A-A6C3-1140-B5A8-7A80C219E678}">
+  <dimension ref="A4:U47"/>
+  <sheetViews>
+    <sheetView topLeftCell="N30" zoomScale="140" workbookViewId="0">
+      <selection activeCell="U45" sqref="U45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="1.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="31"/>
+    <col min="16" max="16" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21" customWidth="1"/>
+    <col min="20" max="20" width="22.33203125" customWidth="1"/>
+    <col min="21" max="21" width="26.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:17" s="11" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="47"/>
+      <c r="P4" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="19">
+        <v>0.48449999999999999</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0.46350000000000002</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="P5" s="43">
+        <v>727</v>
+      </c>
+      <c r="Q5" s="43"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="20">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="B6" s="20">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="P6" s="43">
+        <v>836</v>
+      </c>
+      <c r="Q6" s="43"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="20">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="B7" s="20">
+        <v>0.46650000000000003</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7">
+        <v>0.47849999999999998</v>
+      </c>
+      <c r="P7" s="43">
+        <v>67</v>
+      </c>
+      <c r="Q7" s="43"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="20">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="B8" s="20">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="P8" s="43">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="43"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="20">
+        <v>0.48649999999999999</v>
+      </c>
+      <c r="B9" s="20">
+        <v>0.46850000000000003</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="P9" s="43">
+        <v>215</v>
+      </c>
+      <c r="Q9" s="43"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="20">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="B10" s="20">
+        <v>0.46850000000000003</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10">
+        <v>0.47849999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="20">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="B11" s="20">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11">
+        <v>0.47799999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="B12" s="35">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="34">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="N12" s="26"/>
+    </row>
+    <row r="13" spans="1:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="B13" s="20">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="18"/>
+      <c r="M13">
+        <v>0.47699999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="20">
+        <v>0.48949999999999999</v>
+      </c>
+      <c r="B14" s="20">
+        <v>0.48449999999999999</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="25">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="N14" s="26"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="20">
+        <v>0.4945</v>
+      </c>
+      <c r="B15" s="20">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="29">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="N15" s="26"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="20">
+        <v>0.49349999999999999</v>
+      </c>
+      <c r="B16" s="20">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="29">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="N16" s="26"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="20">
+        <v>0.495</v>
+      </c>
+      <c r="B17" s="20">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="29">
+        <v>0.48449999999999999</v>
+      </c>
+      <c r="N17" s="26"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="20">
+        <v>0.495</v>
+      </c>
+      <c r="B18" s="20">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="29">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="N18" s="26"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="25">
+        <v>0.4955</v>
+      </c>
+      <c r="B19" s="20">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="29">
+        <v>0.48549999999999999</v>
+      </c>
+      <c r="N19" s="26"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="20">
+        <v>0.4945</v>
+      </c>
+      <c r="B20" s="25">
+        <v>0.49</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="29">
+        <v>0.48549999999999999</v>
+      </c>
+      <c r="N20" s="26"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="20">
+        <v>0.49149999999999999</v>
+      </c>
+      <c r="B21" s="20">
+        <v>0.48449999999999999</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21">
+        <v>0.47299999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="35">
+        <v>0.4945</v>
+      </c>
+      <c r="B22" s="35">
+        <v>0.48849999999999999</v>
+      </c>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="39">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="N22" s="26"/>
+    </row>
+    <row r="23" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="B23">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23">
+        <v>0.48199999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="32"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="12"/>
+      <c r="M24">
+        <v>0.48599999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="12"/>
+      <c r="M25">
+        <v>0.48749999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="12"/>
+      <c r="M26">
+        <v>0.48299999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="12"/>
+      <c r="M27">
+        <v>0.48749999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="14"/>
+      <c r="M28">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="12"/>
+      <c r="M29">
+        <v>0.48749999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="16">
+        <v>0.48849999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="12"/>
+      <c r="M31">
+        <v>0.48749999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="38"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="34">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="N32" s="26"/>
+    </row>
+    <row r="33" spans="1:21" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="31"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M33" s="29">
+        <v>0.48649999999999999</v>
+      </c>
+      <c r="N33" s="26"/>
+    </row>
+    <row r="34" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="29">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="N34" s="26"/>
+    </row>
+    <row r="35" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="26"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="29">
+        <v>0.48149999999999998</v>
+      </c>
+      <c r="N35" s="26"/>
+      <c r="O35" t="s">
+        <v>38</v>
+      </c>
+      <c r="P35" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q35" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="R35" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="S35" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="T35" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="U35" s="46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="85" x14ac:dyDescent="0.2">
+      <c r="A36" s="26"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="40">
+        <v>0.49</v>
+      </c>
+      <c r="N36" s="26"/>
+      <c r="P36" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q36" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="R36" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="S36" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="T36" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="U36" s="44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A37" s="26"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="29">
+        <v>0.48849999999999999</v>
+      </c>
+      <c r="N37" s="26"/>
+      <c r="O37" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q37">
+        <v>0.49349999999999999</v>
+      </c>
+      <c r="R37">
+        <v>0.47849999999999998</v>
+      </c>
+      <c r="S37">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="T37">
+        <v>0.47849999999999998</v>
+      </c>
+      <c r="U37">
+        <v>0.48099999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="29">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="N38" s="26"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="29">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="N39" s="26"/>
+    </row>
+    <row r="40" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="41">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="N40" s="26"/>
+    </row>
+    <row r="41" spans="1:21" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="18"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="29">
+        <v>0.48449999999999999</v>
+      </c>
+      <c r="N41" s="26"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C42" s="12"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="29">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="N42" s="26"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="29">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="N43" s="26"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="29">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="N44" s="26"/>
+      <c r="O44" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q44">
+        <v>0.495</v>
+      </c>
+      <c r="R44">
+        <v>0.48</v>
+      </c>
+      <c r="S44">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="T44">
+        <v>0.47849999999999998</v>
+      </c>
+      <c r="U44">
+        <v>0.47949999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="85" x14ac:dyDescent="0.2">
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="40">
+        <v>0.49</v>
+      </c>
+      <c r="N45" s="26"/>
+      <c r="P45" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q45" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="R45" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="S45" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="T45" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="U45" s="44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="29">
+        <v>0.48849999999999999</v>
+      </c>
+      <c r="N46" s="26"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="29">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="N47" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87886D1-D16D-644C-BC97-1763D7701404}">
+  <dimension ref="B3:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="233" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>42</v>
+      </c>
+      <c r="C4" s="50">
+        <v>0.4955</v>
+      </c>
+      <c r="D4">
+        <v>0.49149999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.49149999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.49</v>
+      </c>
+      <c r="G4">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>727</v>
+      </c>
+      <c r="C5" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="50">
+        <v>0.50049999999999994</v>
+      </c>
+      <c r="E5" s="50">
+        <v>0.50049999999999994</v>
+      </c>
+      <c r="F5" s="43">
+        <v>0.49349999999999999</v>
+      </c>
+      <c r="G5">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>836</v>
+      </c>
+      <c r="C6" s="51">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="D6" s="43">
+        <v>0.48149999999999998</v>
+      </c>
+      <c r="E6">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="F6" s="43">
+        <v>0.47849999999999998</v>
+      </c>
+      <c r="G6">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>67</v>
+      </c>
+      <c r="C7" s="52">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="D7" s="43">
+        <v>0.46350000000000002</v>
+      </c>
+      <c r="E7">
+        <v>0.46350000000000002</v>
+      </c>
+      <c r="F7" s="43">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="G7">
+        <v>0.46800000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>47</v>
+      </c>
+      <c r="C8" s="49">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="D8" s="50">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.49049999999999999</v>
+      </c>
+      <c r="F8" s="43">
+        <v>0.47849999999999998</v>
+      </c>
+      <c r="G8">
+        <v>0.47849999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>215</v>
+      </c>
+      <c r="C9" s="50">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.48149999999999998</v>
+      </c>
+      <c r="E9">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="F9">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="G9">
+        <v>0.47949999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julianayang/Desktop/LN2223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAEBA4C-2719-6248-81F6-99585F109946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDCC7A1-F840-A143-BC93-9335FDE4DD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{D431602A-7DD3-0049-BB0B-09E4E3AEA6B3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="5" xr2:uid="{D431602A-7DD3-0049-BB0B-09E4E3AEA6B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="NaiveBayes" sheetId="3" r:id="rId3"/>
     <sheet name="SVM" sheetId="4" r:id="rId4"/>
     <sheet name="Seed-simplificado" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="89">
   <si>
     <t>Modelo</t>
   </si>
@@ -495,11 +496,44 @@
  [ 31  19  41 176 143]
  [ 32  11  10  56 270]]</t>
   </si>
+  <si>
+    <t>Run 1</t>
+  </si>
+  <si>
+    <t>Run 2</t>
+  </si>
+  <si>
+    <t>Run 3</t>
+  </si>
+  <si>
+    <t>Run 4</t>
+  </si>
+  <si>
+    <t>Run 5</t>
+  </si>
+  <si>
+    <t>Run 6</t>
+  </si>
+  <si>
+    <t>Baseline 1</t>
+  </si>
+  <si>
+    <t>Baseline 2</t>
+  </si>
+  <si>
+    <t>JLLR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -638,7 +672,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -823,12 +857,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF305496"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF305496"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF305496"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF305496"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF305496"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -900,12 +972,78 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="17">
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thick">
+          <color rgb="FF305496"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thick">
+          <color rgb="FF305496"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -929,31 +1067,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1009,8 +1122,38 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF305496"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1023,7 +1166,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AD018E79-40D4-0546-868E-BF8E50AFF050}" name="Table3" displayName="Table3" ref="O4:Q9" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AD018E79-40D4-0546-868E-BF8E50AFF050}" name="Table3" displayName="Table3" ref="O4:Q9" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="O4:Q9" xr:uid="{AD018E79-40D4-0546-868E-BF8E50AFF050}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{FE12D8A6-BF2E-DA41-954B-C25EE46F61E7}" name="seed"/>
@@ -1035,7 +1178,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AE7DE084-3683-1549-862C-88FD86DEAA6D}" name="Table2" displayName="Table2" ref="P4:Q9" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AE7DE084-3683-1549-862C-88FD86DEAA6D}" name="Table2" displayName="Table2" ref="P4:Q9" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="P4:Q9" xr:uid="{AE7DE084-3683-1549-862C-88FD86DEAA6D}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{4DD33A30-3CCF-0E4F-A452-8F3D91C121A2}" name="seed"/>
@@ -1062,18 +1205,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53DA7F48-FC31-DC46-B2A1-F2475C125A03}" name="Table1" displayName="Table1" ref="P4:Q9" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53DA7F48-FC31-DC46-B2A1-F2475C125A03}" name="Table1" displayName="Table1" ref="P4:Q9" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="P4:Q9" xr:uid="{53DA7F48-FC31-DC46-B2A1-F2475C125A03}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F7C836D0-F97F-2548-8E74-D9E3B3D1C8C9}" name="seed" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{C2ABAB1E-8CA1-404F-BFBF-27DFEA90C9DD}" name="LR" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{F7C836D0-F97F-2548-8E74-D9E3B3D1C8C9}" name="seed" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{C2ABAB1E-8CA1-404F-BFBF-27DFEA90C9DD}" name="LR" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C03ADF97-A77A-E842-8435-824E6CD45173}" name="Table5" displayName="Table5" ref="O35:U47" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C03ADF97-A77A-E842-8435-824E6CD45173}" name="Table5" displayName="Table5" ref="O35:U47" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="O35:U47" xr:uid="{C03ADF97-A77A-E842-8435-824E6CD45173}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{EECAF8BD-B51E-F942-8EC3-5486207D7B0A}" name="seed"/>
@@ -1100,6 +1243,30 @@
     <tableColumn id="6" xr3:uid="{51312238-C0B1-B24A-BCB7-120EB9586D0A}" name="SVM2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{EF261613-9E5D-9B48-9DFD-830CEDD21111}" name="Table7" displayName="Table7" ref="B2:H5" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="9">
+  <autoFilter ref="B2:H5" xr:uid="{EF261613-9E5D-9B48-9DFD-830CEDD21111}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{DC9B6375-84EA-E247-B97C-A214450EE21F}" name=" " dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{524EA1A6-1464-6448-B61D-3B102C7A0969}" name="Run 1" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{20B57E40-DABF-B54E-A6BC-35039DBBD4A4}" name="Run 2" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{B7CE7718-7C81-FE46-BF91-D30435F175A9}" name="Run 3" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{7EA454DB-0DCC-E54A-B33D-7E2F2046EC62}" name="Run 4" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{9F56A6A7-8883-BD46-BE1B-CA494B8670BC}" name="Run 5" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{C0113E30-10A7-7D4B-8260-2717A749D913}" name="Run 6" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -4676,7 +4843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87886D1-D16D-644C-BC97-1763D7701404}">
   <dimension ref="B3:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="233" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="233" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -4829,4 +4996,123 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402B1FA7-323C-9546-B5AE-56E7AE0F267C}">
+  <dimension ref="B2:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="6" width="10.83203125" style="53"/>
+    <col min="7" max="7" width="10.83203125" style="53" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="53"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="18" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="58">
+        <v>0.3115</v>
+      </c>
+      <c r="D3" s="58">
+        <v>0.32150000000000001</v>
+      </c>
+      <c r="E3" s="58">
+        <v>0.32150000000000001</v>
+      </c>
+      <c r="F3" s="58">
+        <v>0.309</v>
+      </c>
+      <c r="G3" s="58">
+        <v>0.3115</v>
+      </c>
+      <c r="H3" s="58">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B4" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="58">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="D4" s="58">
+        <v>0.48149999999999998</v>
+      </c>
+      <c r="E4" s="58">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="F4" s="58">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="G4" s="58">
+        <v>0.46</v>
+      </c>
+      <c r="H4" s="58">
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="58">
+        <v>0.4955</v>
+      </c>
+      <c r="D5" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="58">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="F5" s="58">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="G5" s="58">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="H5" s="58">
+        <v>0.48599999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D8" s="54"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>